--- a/tabelle_finali_donne_indicatori_stati/info_identikit_donne.xlsx
+++ b/tabelle_finali_donne_indicatori_stati/info_identikit_donne.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-M-\Desktop\DM_DV_Maggio\finale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzolorgna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C10B3-3E10-4316-B9B3-7BA894C1F6C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A08F2D4-BE9A-E64B-B3B4-1958049B79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="767">
   <si>
     <t>id</t>
   </si>
@@ -2267,9 +2267,6 @@
   </si>
   <si>
     <t>#ClimateStrike #FridaysForFuture #SchoolStrike4Climate #FaceTheClimateEmergency</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
   <si>
     <t>regione</t>
@@ -2597,22 +2594,22 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.625" style="2" customWidth="1"/>
-    <col min="13" max="25" width="7.625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="12.625" style="2"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="25" width="7.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2620,22 +2617,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>757</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
@@ -2644,16 +2641,14 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2670,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -2688,13 +2683,10 @@
         <v>2015</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2711,7 +2703,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
@@ -2726,13 +2718,10 @@
         <v>2015</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2749,13 +2738,13 @@
         <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -2767,13 +2756,10 @@
         <v>2015</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2790,13 +2776,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -2805,13 +2791,10 @@
         <v>2015</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2828,13 +2811,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
@@ -2846,13 +2829,10 @@
         <v>2015</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2869,13 +2849,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -2884,13 +2864,10 @@
         <v>2015</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2907,13 +2884,13 @@
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -2925,13 +2902,10 @@
         <v>2015</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2948,25 +2922,22 @@
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K9" s="1">
         <v>2015</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2983,13 +2954,13 @@
         <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>36</v>
@@ -3001,13 +2972,10 @@
         <v>2015</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3024,13 +2992,13 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>40</v>
@@ -3042,13 +3010,10 @@
         <v>2015</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -3065,7 +3030,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>44</v>
@@ -3083,13 +3048,10 @@
         <v>2015</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>338</v>
       </c>
@@ -3106,13 +3068,13 @@
         <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -3121,13 +3083,10 @@
         <v>2015</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -3144,13 +3103,13 @@
         <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
@@ -3159,13 +3118,10 @@
         <v>2015</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -3182,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>56</v>
@@ -3200,13 +3156,10 @@
         <v>2015</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -3223,7 +3176,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
@@ -3241,13 +3194,10 @@
         <v>2015</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -3264,7 +3214,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>56</v>
@@ -3282,13 +3232,10 @@
         <v>2015</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -3305,13 +3252,13 @@
         <v>25</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>70</v>
@@ -3323,13 +3270,10 @@
         <v>2015</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3346,13 +3290,13 @@
         <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>75</v>
@@ -3364,13 +3308,10 @@
         <v>2015</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3387,13 +3328,13 @@
         <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>79</v>
@@ -3405,13 +3346,10 @@
         <v>2015</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -3428,13 +3366,13 @@
         <v>32</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>84</v>
@@ -3446,13 +3384,10 @@
         <v>2015</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3469,13 +3404,13 @@
         <v>28</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>88</v>
@@ -3487,13 +3422,10 @@
         <v>2015</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -3510,13 +3442,13 @@
         <v>55</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>92</v>
@@ -3525,13 +3457,10 @@
         <v>2015</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3548,13 +3477,13 @@
         <v>26</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>95</v>
@@ -3563,13 +3492,10 @@
         <v>2015</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -3586,13 +3512,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>98</v>
@@ -3601,13 +3527,10 @@
         <v>2015</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -3624,13 +3547,13 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>101</v>
@@ -3639,13 +3562,10 @@
         <v>2015</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -3662,13 +3582,13 @@
         <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>104</v>
@@ -3680,13 +3600,10 @@
         <v>2015</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -3703,13 +3620,13 @@
         <v>17</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>108</v>
@@ -3718,13 +3635,10 @@
         <v>2015</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3741,13 +3655,13 @@
         <v>83</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>111</v>
@@ -3756,13 +3670,10 @@
         <v>2015</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
@@ -3779,25 +3690,22 @@
         <v>60</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K30" s="1">
         <v>2015</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3814,13 +3722,13 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>116</v>
@@ -3829,13 +3737,10 @@
         <v>2015</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
@@ -3852,7 +3757,7 @@
         <v>24</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>119</v>
@@ -3864,13 +3769,10 @@
         <v>2015</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
@@ -3887,7 +3789,7 @@
         <v>89</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>122</v>
@@ -3899,13 +3801,10 @@
         <v>2015</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -3922,13 +3821,13 @@
         <v>29</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>126</v>
@@ -3937,13 +3836,10 @@
         <v>2015</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
@@ -3960,7 +3856,7 @@
         <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>129</v>
@@ -3972,13 +3868,10 @@
         <v>2015</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>130</v>
       </c>
@@ -3995,13 +3888,13 @@
         <v>47</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>133</v>
@@ -4010,13 +3903,10 @@
         <v>2015</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -4033,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>136</v>
@@ -4051,13 +3941,10 @@
         <v>2015</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>139</v>
       </c>
@@ -4074,7 +3961,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>136</v>
@@ -4086,13 +3973,10 @@
         <v>2015</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
@@ -4109,7 +3993,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>136</v>
@@ -4121,13 +4005,10 @@
         <v>2015</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -4144,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>145</v>
@@ -4156,13 +4037,10 @@
         <v>2015</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4179,7 +4057,7 @@
         <v>85</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>148</v>
@@ -4194,13 +4072,10 @@
         <v>2015</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
@@ -4217,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>152</v>
@@ -4235,13 +4110,10 @@
         <v>2015</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -4255,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>157</v>
@@ -4267,13 +4139,10 @@
         <v>2015</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
@@ -4290,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>160</v>
@@ -4305,13 +4174,10 @@
         <v>2015</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -4328,13 +4194,13 @@
         <v>27</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>164</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>165</v>
@@ -4343,13 +4209,10 @@
         <v>2015</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
@@ -4366,13 +4229,13 @@
         <v>26</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>164</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>168</v>
@@ -4384,13 +4247,10 @@
         <v>2015</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>170</v>
       </c>
@@ -4407,13 +4267,13 @@
         <v>33</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>164</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>172</v>
@@ -4422,13 +4282,10 @@
         <v>2015</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>173</v>
       </c>
@@ -4445,7 +4302,7 @@
         <v>54</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>175</v>
@@ -4460,13 +4317,10 @@
         <v>2015</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -4483,13 +4337,13 @@
         <v>74</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>179</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>180</v>
@@ -4498,13 +4352,10 @@
         <v>2015</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>181</v>
       </c>
@@ -4521,13 +4372,13 @@
         <v>29</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>179</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
@@ -4539,13 +4390,10 @@
         <v>2015</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>185</v>
       </c>
@@ -4562,7 +4410,7 @@
         <v>38</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>187</v>
@@ -4574,13 +4422,10 @@
         <v>2015</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>188</v>
       </c>
@@ -4597,7 +4442,7 @@
         <v>29</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>190</v>
@@ -4615,13 +4460,10 @@
         <v>2015</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>193</v>
       </c>
@@ -4638,7 +4480,7 @@
         <v>28</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>190</v>
@@ -4653,13 +4495,10 @@
         <v>2015</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>196</v>
       </c>
@@ -4676,7 +4515,7 @@
         <v>82</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>198</v>
@@ -4691,13 +4530,10 @@
         <v>2015</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>200</v>
       </c>
@@ -4714,7 +4550,7 @@
         <v>88</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>198</v>
@@ -4729,13 +4565,10 @@
         <v>2015</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>203</v>
       </c>
@@ -4752,7 +4585,7 @@
         <v>32</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>198</v>
@@ -4767,13 +4600,10 @@
         <v>2015</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>205</v>
       </c>
@@ -4790,7 +4620,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>198</v>
@@ -4808,13 +4638,10 @@
         <v>2015</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -4831,7 +4658,7 @@
         <v>25</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>198</v>
@@ -4849,13 +4676,10 @@
         <v>2015</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>212</v>
       </c>
@@ -4872,7 +4696,7 @@
         <v>33</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>198</v>
@@ -4887,13 +4711,10 @@
         <v>2015</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>215</v>
       </c>
@@ -4910,7 +4731,7 @@
         <v>27</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>198</v>
@@ -4925,13 +4746,10 @@
         <v>2015</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>218</v>
       </c>
@@ -4948,7 +4766,7 @@
         <v>30</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>220</v>
@@ -4963,13 +4781,10 @@
         <v>2015</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>222</v>
       </c>
@@ -4986,7 +4801,7 @@
         <v>31</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>220</v>
@@ -5001,13 +4816,10 @@
         <v>2015</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -5024,7 +4836,7 @@
         <v>91</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>220</v>
@@ -5039,13 +4851,10 @@
         <v>2015</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>228</v>
       </c>
@@ -5062,7 +4871,7 @@
         <v>28</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>230</v>
@@ -5080,13 +4889,10 @@
         <v>2015</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>233</v>
       </c>
@@ -5103,7 +4909,7 @@
         <v>67</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>235</v>
@@ -5118,13 +4924,10 @@
         <v>2015</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>237</v>
       </c>
@@ -5141,25 +4944,22 @@
         <v>87</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K66" s="1">
         <v>2015</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>240</v>
       </c>
@@ -5176,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>242</v>
@@ -5194,13 +4994,10 @@
         <v>2015</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>245</v>
       </c>
@@ -5217,7 +5014,7 @@
         <v>27</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>242</v>
@@ -5235,13 +5032,10 @@
         <v>2015</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>249</v>
       </c>
@@ -5258,7 +5052,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>251</v>
@@ -5273,13 +5067,10 @@
         <v>2015</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>253</v>
       </c>
@@ -5296,7 +5087,7 @@
         <v>29</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>255</v>
@@ -5311,13 +5102,10 @@
         <v>2015</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>257</v>
       </c>
@@ -5334,13 +5122,13 @@
         <v>24</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>260</v>
@@ -5352,13 +5140,10 @@
         <v>2015</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>262</v>
       </c>
@@ -5375,25 +5160,22 @@
         <v>45</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>264</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K72" s="1">
         <v>2015</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>265</v>
       </c>
@@ -5410,7 +5192,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>267</v>
@@ -5425,13 +5207,10 @@
         <v>2015</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>269</v>
       </c>
@@ -5448,7 +5227,7 @@
         <v>17</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>271</v>
@@ -5463,13 +5242,10 @@
         <v>2015</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
@@ -5486,7 +5262,7 @@
         <v>28</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>271</v>
@@ -5504,13 +5280,10 @@
         <v>2015</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>277</v>
       </c>
@@ -5527,7 +5300,7 @@
         <v>27</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>279</v>
@@ -5539,13 +5312,10 @@
         <v>2015</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>280</v>
       </c>
@@ -5562,7 +5332,7 @@
         <v>29</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>279</v>
@@ -5577,13 +5347,10 @@
         <v>2015</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>283</v>
       </c>
@@ -5600,13 +5367,13 @@
         <v>27</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>285</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>286</v>
@@ -5618,13 +5385,10 @@
         <v>2015</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>288</v>
       </c>
@@ -5641,7 +5405,7 @@
         <v>54</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>290</v>
@@ -5653,13 +5417,10 @@
         <v>2015</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>291</v>
       </c>
@@ -5676,7 +5437,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>290</v>
@@ -5691,13 +5452,10 @@
         <v>2015</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>294</v>
       </c>
@@ -5714,7 +5472,7 @@
         <v>44</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>296</v>
@@ -5729,13 +5487,10 @@
         <v>2015</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>298</v>
       </c>
@@ -5752,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>296</v>
@@ -5767,13 +5522,10 @@
         <v>2015</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>301</v>
       </c>
@@ -5790,7 +5542,7 @@
         <v>68</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>303</v>
@@ -5805,13 +5557,10 @@
         <v>2015</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>305</v>
       </c>
@@ -5828,7 +5577,7 @@
         <v>29</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>307</v>
@@ -5843,13 +5592,10 @@
         <v>2015</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>309</v>
       </c>
@@ -5866,7 +5612,7 @@
         <v>24</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>307</v>
@@ -5881,13 +5627,10 @@
         <v>2015</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>312</v>
       </c>
@@ -5904,7 +5647,7 @@
         <v>66</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>314</v>
@@ -5922,13 +5665,10 @@
         <v>2015</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -5945,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>314</v>
@@ -5960,13 +5700,10 @@
         <v>2015</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>320</v>
       </c>
@@ -5983,7 +5720,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>314</v>
@@ -5998,13 +5735,10 @@
         <v>2015</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>323</v>
       </c>
@@ -6021,7 +5755,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>314</v>
@@ -6036,13 +5770,10 @@
         <v>2015</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>326</v>
       </c>
@@ -6059,7 +5790,7 @@
         <v>29</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>314</v>
@@ -6074,13 +5805,10 @@
         <v>2015</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>329</v>
       </c>
@@ -6097,7 +5825,7 @@
         <v>38</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>331</v>
@@ -6112,13 +5840,10 @@
         <v>2015</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>333</v>
       </c>
@@ -6135,7 +5860,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>331</v>
@@ -6153,13 +5878,10 @@
         <v>2015</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>337</v>
       </c>
@@ -6176,13 +5898,13 @@
         <v>32</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>339</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>340</v>
@@ -6194,13 +5916,10 @@
         <v>2015</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>342</v>
       </c>
@@ -6217,7 +5936,7 @@
         <v>17</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>344</v>
@@ -6232,13 +5951,10 @@
         <v>2015</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>345</v>
       </c>
@@ -6255,7 +5971,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>344</v>
@@ -6270,13 +5986,10 @@
         <v>2015</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>348</v>
       </c>
@@ -6290,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>344</v>
@@ -6302,13 +6015,10 @@
         <v>2015</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>350</v>
       </c>
@@ -6325,7 +6035,7 @@
         <v>60</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>352</v>
@@ -6337,13 +6047,10 @@
         <v>2015</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>353</v>
       </c>
@@ -6360,7 +6067,7 @@
         <v>21</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>352</v>
@@ -6375,13 +6082,10 @@
         <v>2015</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>356</v>
       </c>
@@ -6398,13 +6102,13 @@
         <v>28</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>358</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>359</v>
@@ -6416,13 +6120,10 @@
         <v>2015</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>361</v>
       </c>
@@ -6439,25 +6140,22 @@
         <v>15</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>363</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K100" s="1">
         <v>2015</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>364</v>
       </c>
@@ -6474,25 +6172,22 @@
         <v>52</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>363</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K101" s="1">
         <v>2015</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>366</v>
       </c>
@@ -6509,25 +6204,22 @@
         <v>25</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K102" s="1">
         <v>2019</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>368</v>
       </c>
@@ -6544,7 +6236,7 @@
         <v>59</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>198</v>
@@ -6559,13 +6251,10 @@
         <v>2019</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M103" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>371</v>
       </c>
@@ -6582,13 +6271,13 @@
         <v>52</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>373</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>374</v>
@@ -6600,13 +6289,10 @@
         <v>2019</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M104" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>376</v>
       </c>
@@ -6623,7 +6309,7 @@
         <v>18</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>378</v>
@@ -6641,13 +6327,10 @@
         <v>2019</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>381</v>
       </c>
@@ -6664,7 +6347,7 @@
         <v>46</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>296</v>
@@ -6682,13 +6365,10 @@
         <v>2019</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M106" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>385</v>
       </c>
@@ -6705,7 +6385,7 @@
         <v>21</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>220</v>
@@ -6723,13 +6403,10 @@
         <v>2019</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>389</v>
       </c>
@@ -6743,7 +6420,7 @@
         <v>190</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>391</v>
@@ -6761,13 +6438,10 @@
         <v>2019</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M108" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>394</v>
       </c>
@@ -6784,7 +6458,7 @@
         <v>38</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>344</v>
@@ -6802,13 +6476,10 @@
         <v>2019</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>398</v>
       </c>
@@ -6825,7 +6496,7 @@
         <v>57</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>400</v>
@@ -6843,13 +6514,10 @@
         <v>2019</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>403</v>
       </c>
@@ -6866,13 +6534,13 @@
         <v>26</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>405</v>
@@ -6881,13 +6549,10 @@
         <v>2019</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>406</v>
       </c>
@@ -6904,13 +6569,13 @@
         <v>26</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>408</v>
@@ -6919,13 +6584,10 @@
         <v>2019</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>409</v>
       </c>
@@ -6939,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>251</v>
@@ -6954,13 +6616,10 @@
         <v>2019</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>412</v>
       </c>
@@ -6977,13 +6636,13 @@
         <v>24</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>414</v>
@@ -6995,13 +6654,10 @@
         <v>2019</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>416</v>
       </c>
@@ -7018,13 +6674,13 @@
         <v>51</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>418</v>
@@ -7033,13 +6689,10 @@
         <v>2019</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>419</v>
       </c>
@@ -7056,7 +6709,7 @@
         <v>40</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>421</v>
@@ -7074,13 +6727,10 @@
         <v>2019</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>424</v>
       </c>
@@ -7097,7 +6747,7 @@
         <v>50</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>426</v>
@@ -7112,13 +6762,10 @@
         <v>2019</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>428</v>
       </c>
@@ -7135,7 +6782,7 @@
         <v>37</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>251</v>
@@ -7153,13 +6800,10 @@
         <v>2019</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>432</v>
       </c>
@@ -7176,7 +6820,7 @@
         <v>75</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>434</v>
@@ -7191,13 +6835,10 @@
         <v>2019</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>436</v>
       </c>
@@ -7214,13 +6855,13 @@
         <v>78</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>438</v>
@@ -7232,13 +6873,10 @@
         <v>2019</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>440</v>
       </c>
@@ -7252,7 +6890,7 @@
         <v>87</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>220</v>
@@ -7270,13 +6908,10 @@
         <v>2019</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>444</v>
       </c>
@@ -7293,13 +6928,13 @@
         <v>30</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>446</v>
@@ -7308,13 +6943,10 @@
         <v>2019</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>447</v>
       </c>
@@ -7331,13 +6963,13 @@
         <v>29</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>449</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>450</v>
@@ -7349,13 +6981,10 @@
         <v>2019</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>452</v>
       </c>
@@ -7369,13 +6998,13 @@
         <v>30</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>454</v>
@@ -7387,13 +7016,10 @@
         <v>2019</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>456</v>
       </c>
@@ -7410,13 +7036,13 @@
         <v>24</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>458</v>
@@ -7425,13 +7051,10 @@
         <v>2019</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>459</v>
       </c>
@@ -7445,13 +7068,13 @@
         <v>429</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>461</v>
@@ -7463,13 +7086,10 @@
         <v>2019</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>463</v>
       </c>
@@ -7483,13 +7103,13 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>465</v>
@@ -7498,13 +7118,10 @@
         <v>2019</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>466</v>
       </c>
@@ -7521,7 +7138,7 @@
         <v>21</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>267</v>
@@ -7536,13 +7153,10 @@
         <v>2019</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>469</v>
       </c>
@@ -7559,7 +7173,7 @@
         <v>41</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>148</v>
@@ -7577,13 +7191,10 @@
         <v>2019</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>473</v>
       </c>
@@ -7600,13 +7211,13 @@
         <v>55</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>475</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>476</v>
@@ -7618,13 +7229,10 @@
         <v>2019</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>478</v>
       </c>
@@ -7641,7 +7249,7 @@
         <v>47</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>314</v>
@@ -7659,13 +7267,10 @@
         <v>2019</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>482</v>
       </c>
@@ -7682,7 +7287,7 @@
         <v>81</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>307</v>
@@ -7697,13 +7302,10 @@
         <v>2019</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>485</v>
       </c>
@@ -7720,13 +7322,13 @@
         <v>23</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>487</v>
@@ -7735,13 +7337,10 @@
         <v>2019</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>488</v>
       </c>
@@ -7758,13 +7357,13 @@
         <v>28</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>490</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>491</v>
@@ -7776,13 +7375,10 @@
         <v>2019</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>493</v>
       </c>
@@ -7799,13 +7395,13 @@
         <v>33</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>239</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>495</v>
@@ -7817,13 +7413,10 @@
         <v>2019</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>497</v>
       </c>
@@ -7840,7 +7433,7 @@
         <v>27</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>6</v>
@@ -7858,13 +7451,10 @@
         <v>2019</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M136" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>501</v>
       </c>
@@ -7881,7 +7471,7 @@
         <v>31</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>271</v>
@@ -7896,13 +7486,10 @@
         <v>2019</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>504</v>
       </c>
@@ -7919,7 +7506,7 @@
         <v>22</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>56</v>
@@ -7937,13 +7524,10 @@
         <v>2019</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>508</v>
       </c>
@@ -7960,13 +7544,13 @@
         <v>36</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>510</v>
@@ -7978,13 +7562,10 @@
         <v>2019</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M139" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>512</v>
       </c>
@@ -8001,7 +7582,7 @@
         <v>30</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>136</v>
@@ -8016,13 +7597,10 @@
         <v>2019</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>515</v>
       </c>
@@ -8039,13 +7617,13 @@
         <v>99</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>363</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>517</v>
@@ -8054,13 +7632,10 @@
         <v>2019</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>518</v>
       </c>
@@ -8077,7 +7652,7 @@
         <v>32</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>520</v>
@@ -8095,13 +7670,10 @@
         <v>2019</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M142" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>523</v>
       </c>
@@ -8115,7 +7687,7 @@
         <v>257</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>303</v>
@@ -8133,13 +7705,10 @@
         <v>2019</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>527</v>
       </c>
@@ -8156,7 +7725,7 @@
         <v>21</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>198</v>
@@ -8171,13 +7740,10 @@
         <v>2019</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>530</v>
       </c>
@@ -8191,13 +7757,13 @@
         <v>98</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>532</v>
@@ -8209,13 +7775,10 @@
         <v>2019</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>533</v>
       </c>
@@ -8229,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>331</v>
@@ -8244,13 +7807,10 @@
         <v>2019</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>536</v>
       </c>
@@ -8264,13 +7824,13 @@
         <v>32</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>538</v>
@@ -8282,13 +7842,10 @@
         <v>2019</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>540</v>
       </c>
@@ -8302,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>331</v>
@@ -8317,13 +7874,10 @@
         <v>2019</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>543</v>
       </c>
@@ -8340,13 +7894,13 @@
         <v>24</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>179</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>545</v>
@@ -8355,13 +7909,10 @@
         <v>2019</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M149" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>546</v>
       </c>
@@ -8378,7 +7929,7 @@
         <v>22</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>520</v>
@@ -8396,13 +7947,10 @@
         <v>2019</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M150" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>550</v>
       </c>
@@ -8419,7 +7967,7 @@
         <v>33</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>552</v>
@@ -8434,13 +7982,10 @@
         <v>2019</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>554</v>
       </c>
@@ -8457,7 +8002,7 @@
         <v>55</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>556</v>
@@ -8472,13 +8017,10 @@
         <v>2019</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M152" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>557</v>
       </c>
@@ -8495,13 +8037,13 @@
         <v>44</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>559</v>
@@ -8513,13 +8055,10 @@
         <v>2019</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M153" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>327</v>
       </c>
@@ -8536,13 +8075,13 @@
         <v>42</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>339</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>562</v>
@@ -8554,13 +8093,10 @@
         <v>2019</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M154" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>564</v>
       </c>
@@ -8577,13 +8113,13 @@
         <v>34</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>566</v>
@@ -8592,13 +8128,10 @@
         <v>2019</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M155" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>567</v>
       </c>
@@ -8615,7 +8148,7 @@
         <v>49</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>569</v>
@@ -8633,13 +8166,10 @@
         <v>2019</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M156" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>572</v>
       </c>
@@ -8653,13 +8183,13 @@
         <v>6</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>574</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>575</v>
@@ -8668,13 +8198,10 @@
         <v>2019</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M157" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>373</v>
       </c>
@@ -8691,13 +8218,13 @@
         <v>18</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>577</v>
@@ -8706,13 +8233,10 @@
         <v>2019</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M158" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>578</v>
       </c>
@@ -8729,13 +8253,13 @@
         <v>37</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>581</v>
@@ -8747,13 +8271,10 @@
         <v>2019</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M159" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>583</v>
       </c>
@@ -8770,13 +8291,13 @@
         <v>26</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>585</v>
@@ -8785,13 +8306,10 @@
         <v>2019</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M160" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>586</v>
       </c>
@@ -8805,13 +8323,13 @@
         <v>69</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>588</v>
@@ -8823,13 +8341,10 @@
         <v>2019</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M161" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>590</v>
       </c>
@@ -8846,7 +8361,7 @@
         <v>31</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>592</v>
@@ -8861,13 +8376,10 @@
         <v>2019</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>594</v>
       </c>
@@ -8884,7 +8396,7 @@
         <v>48</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>198</v>
@@ -8902,13 +8414,10 @@
         <v>2019</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M163" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>597</v>
       </c>
@@ -8925,7 +8434,7 @@
         <v>26</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>145</v>
@@ -8943,13 +8452,10 @@
         <v>2019</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M164" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>601</v>
       </c>
@@ -8963,7 +8469,7 @@
         <v>201</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>198</v>
@@ -8981,13 +8487,10 @@
         <v>2019</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M165" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>604</v>
       </c>
@@ -9004,7 +8507,7 @@
         <v>29</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>606</v>
@@ -9022,13 +8525,10 @@
         <v>2019</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M166" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>609</v>
       </c>
@@ -9045,7 +8545,7 @@
         <v>34</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>606</v>
@@ -9060,13 +8560,10 @@
         <v>2019</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M167" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>611</v>
       </c>
@@ -9083,7 +8580,7 @@
         <v>25</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>198</v>
@@ -9098,13 +8595,10 @@
         <v>2019</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M168" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>614</v>
       </c>
@@ -9121,7 +8615,7 @@
         <v>24</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>148</v>
@@ -9139,13 +8633,10 @@
         <v>2019</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M169" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>618</v>
       </c>
@@ -9159,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>620</v>
@@ -9174,13 +8665,10 @@
         <v>2019</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M170" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>622</v>
       </c>
@@ -9197,7 +8685,7 @@
         <v>30</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>235</v>
@@ -9215,13 +8703,10 @@
         <v>2019</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M171" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>626</v>
       </c>
@@ -9238,13 +8723,13 @@
         <v>15</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>628</v>
@@ -9256,13 +8741,10 @@
         <v>2019</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>630</v>
       </c>
@@ -9279,7 +8761,7 @@
         <v>25</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>632</v>
@@ -9294,13 +8776,10 @@
         <v>2019</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>634</v>
       </c>
@@ -9317,13 +8796,13 @@
         <v>34</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>636</v>
@@ -9335,13 +8814,10 @@
         <v>2019</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>638</v>
       </c>
@@ -9358,13 +8834,13 @@
         <v>38</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>640</v>
@@ -9376,13 +8852,10 @@
         <v>2019</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M175" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>642</v>
       </c>
@@ -9396,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>136</v>
@@ -9411,13 +8884,10 @@
         <v>2019</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>354</v>
       </c>
@@ -9434,7 +8904,7 @@
         <v>56</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>160</v>
@@ -9452,13 +8922,10 @@
         <v>2019</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>648</v>
       </c>
@@ -9475,13 +8942,13 @@
         <v>39</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>650</v>
@@ -9490,13 +8957,10 @@
         <v>2019</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>651</v>
       </c>
@@ -9513,7 +8977,7 @@
         <v>24</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>653</v>
@@ -9531,13 +8995,10 @@
         <v>2019</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M179" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>656</v>
       </c>
@@ -9551,7 +9012,7 @@
         <v>415</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>251</v>
@@ -9569,13 +9030,10 @@
         <v>2019</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M180" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>660</v>
       </c>
@@ -9592,7 +9050,7 @@
         <v>31</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>242</v>
@@ -9610,13 +9068,10 @@
         <v>2019</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>664</v>
       </c>
@@ -9633,7 +9088,7 @@
         <v>66</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>666</v>
@@ -9651,13 +9106,10 @@
         <v>2019</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>669</v>
       </c>
@@ -9674,7 +9126,7 @@
         <v>22</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>352</v>
@@ -9692,13 +9144,10 @@
         <v>2019</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M183" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>673</v>
       </c>
@@ -9712,7 +9161,7 @@
         <v>31</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>344</v>
@@ -9730,13 +9179,10 @@
         <v>2019</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M184" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>677</v>
       </c>
@@ -9750,7 +9196,7 @@
         <v>209</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>679</v>
@@ -9768,13 +9214,10 @@
         <v>2019</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M185" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>682</v>
       </c>
@@ -9791,7 +9234,7 @@
         <v>67</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>198</v>
@@ -9809,13 +9252,10 @@
         <v>2019</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>686</v>
       </c>
@@ -9829,7 +9269,7 @@
         <v>62</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>198</v>
@@ -9847,13 +9287,10 @@
         <v>2019</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>690</v>
       </c>
@@ -9870,7 +9307,7 @@
         <v>32</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>290</v>
@@ -9888,13 +9325,10 @@
         <v>2019</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>694</v>
       </c>
@@ -9908,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>696</v>
@@ -9923,13 +9357,10 @@
         <v>2019</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M189" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>698</v>
       </c>
@@ -9946,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>700</v>
@@ -9964,13 +9395,10 @@
         <v>2019</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M190" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>703</v>
       </c>
@@ -9987,13 +9415,13 @@
         <v>62</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>705</v>
@@ -10005,13 +9433,10 @@
         <v>2019</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>707</v>
       </c>
@@ -10028,13 +9453,13 @@
         <v>35</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>259</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>709</v>
@@ -10046,13 +9471,10 @@
         <v>2019</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>711</v>
       </c>
@@ -10069,13 +9491,13 @@
         <v>96</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>358</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>713</v>
@@ -10087,13 +9509,10 @@
         <v>2019</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M193" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>715</v>
       </c>
@@ -10107,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>426</v>
@@ -10122,13 +9541,10 @@
         <v>2019</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M194" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>718</v>
       </c>
@@ -10145,7 +9561,7 @@
         <v>67</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>720</v>
@@ -10163,13 +9579,10 @@
         <v>2019</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M195" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>723</v>
       </c>
@@ -10186,13 +9599,13 @@
         <v>45</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>725</v>
@@ -10204,13 +9617,10 @@
         <v>2019</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M196" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>727</v>
       </c>
@@ -10227,13 +9637,13 @@
         <v>28</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>729</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>730</v>
@@ -10245,13 +9655,10 @@
         <v>2019</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M197" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>732</v>
       </c>
@@ -10265,13 +9672,13 @@
         <v>87</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>734</v>
@@ -10283,13 +9690,10 @@
         <v>2019</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M198" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>736</v>
       </c>
@@ -10306,13 +9710,13 @@
         <v>30</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>738</v>
@@ -10324,13 +9728,10 @@
         <v>2019</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M199" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>740</v>
       </c>
@@ -10347,13 +9748,13 @@
         <v>22</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>742</v>
@@ -10365,13 +9766,10 @@
         <v>2019</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M200" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>744</v>
       </c>
@@ -10388,13 +9786,13 @@
         <v>16</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>339</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>746</v>
@@ -10406,811 +9804,808 @@
         <v>2019</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="M201" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
